--- a/doc/ue4_physx.xlsx
+++ b/doc/ue4_physx.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73786C39-808B-4581-87F5-A97F90282EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB6CF72-1983-4589-A3B9-9F047836CC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PhysX" sheetId="9" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="在World初始化创建和销毁" sheetId="6" r:id="rId3"/>
-    <sheet name="Tick" sheetId="3" r:id="rId4"/>
-    <sheet name="角色加入物理系统" sheetId="2" r:id="rId5"/>
-    <sheet name="角色移除" sheetId="4" r:id="rId6"/>
-    <sheet name="角色同步" sheetId="7" r:id="rId7"/>
-    <sheet name="碰撞检测" sheetId="5" r:id="rId8"/>
-    <sheet name="UPhysicsCollisionHandler" sheetId="8" r:id="rId9"/>
-    <sheet name="地形于高度信息" sheetId="10" r:id="rId10"/>
+    <sheet name="概述" sheetId="11" r:id="rId1"/>
+    <sheet name="PhysX" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="在World初始化创建和销毁" sheetId="6" r:id="rId4"/>
+    <sheet name="Tick" sheetId="3" r:id="rId5"/>
+    <sheet name="角色加入物理系统" sheetId="2" r:id="rId6"/>
+    <sheet name="角色移除" sheetId="4" r:id="rId7"/>
+    <sheet name="角色同步" sheetId="7" r:id="rId8"/>
+    <sheet name="碰撞检测" sheetId="5" r:id="rId9"/>
+    <sheet name="UPhysicsCollisionHandler" sheetId="8" r:id="rId10"/>
+    <sheet name="地形于高度信息" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="301">
   <si>
     <t>角色创建是加入物理系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -994,13 +995,91 @@
   </si>
   <si>
     <t>https://papalqi.cn/ue4-%E7%89%A9%E7%90%86%E7%B3%BB%E7%BB%9F%E5%AE%9E%E7%8E%B0/</t>
+  </si>
+  <si>
+    <t>Sweep</t>
+  </si>
+  <si>
+    <t>扫掠API</t>
+  </si>
+  <si>
+    <r>
+      <t>PhysX扫掠API允许你使用一个</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shape，并且在空间中将其沿着一条直线发射,用以检测一个或者一些和其他场景中的shape相交的地方。</t>
+    </r>
+  </si>
+  <si>
+    <t>它的原理和射线查询类似，不同的地方在于射线查询在空间中只发射一个点,形成一条直线，尽管扫掠API允许你使用更复杂的形状。</t>
+  </si>
+  <si>
+    <t>为了更加形象的描述这个过程，以球形为例子，当一个球形在空间中沿着一条直线进行扫掠，它会形成一个胶囊。</t>
+  </si>
+  <si>
+    <t>Raycast</t>
+  </si>
+  <si>
+    <t>Overlap</t>
+  </si>
+  <si>
+    <t>直线查询碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有形状的查询崩溃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overlap query返回的是和场景发生碰撞的物体所接触到的其他物体。有两种overlap</t>
+  </si>
+  <si>
+    <r>
+      <t>overlapMultiple </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>并不会在第一次hit后停下来，而是会返回其后所有被碰到的物体</t>
+    </r>
+  </si>
+  <si>
+    <t>overlap的没有接触点，所以虚幻想要在overlap时获取接触点，仅仅通过overlap是得不到的</t>
+  </si>
+  <si>
+    <r>
+      <t>overapAny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 特别适用于只知道场景的体积是不是空的情况</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1060,6 +1139,35 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF121212"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1078,10 +1186,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1094,9 +1203,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1373,141 +1485,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F89344-4B04-4627-9B5C-5408CE72EF96}">
-  <dimension ref="B4:E53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1396EA9D-4F30-44A7-B18C-68B34DD934B9}">
+  <dimension ref="B6:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="9" style="6"/>
-  </cols>
   <sheetData>
-    <row r="4" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B28" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B34" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B40" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C9" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C10" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C24" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="2:13" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>300</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="2:13" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C29" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="3:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="3:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="3:13" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" display="https://so.csdn.net/so/search?q=shape&amp;spm=1001.2101.3001.7020" xr:uid="{20A0DCBF-2831-4D32-957A-7E0DE2D998D2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6188ACCB-789C-4780-A27D-7CA8975BECC5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B122FBD-C54C-472A-ACAB-8952BCD16FF0}">
   <dimension ref="B5:C8"/>
   <sheetViews>
@@ -1535,6 +1741,141 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F89344-4B04-4627-9B5C-5408CE72EF96}">
+  <dimension ref="B4:E53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I30"/>
   <sheetViews>
@@ -1663,7 +2004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883215D1-FC53-4282-873C-9D880AC01CA6}">
   <dimension ref="B2:S79"/>
   <sheetViews>
@@ -2106,11 +2447,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61B61EB-4EF2-47FF-B0E9-341B9844B39D}">
   <dimension ref="B3:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2336,11 +2677,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E32DD6-1B4A-4995-AD51-B45D21CC7625}">
   <dimension ref="B3:R74"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -2723,7 +3064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010DB845-74D3-4995-97F8-EF993AE0AEFE}">
   <dimension ref="B4:M49"/>
   <sheetViews>
@@ -2990,7 +3331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FD34A5-D309-40A5-A961-1EDC26AFCC46}">
   <dimension ref="B2:P70"/>
   <sheetViews>
@@ -3322,7 +3663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9898188-A421-48E7-BE11-6A1A2A6773C4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3335,19 +3676,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6188ACCB-789C-4780-A27D-7CA8975BECC5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>